--- a/data_processing_elements-MSC.xlsx
+++ b/data_processing_elements-MSC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlaforme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97F36DD-8B86-420D-8865-3897E89FD46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF8EAF8-A772-4524-8578-E998AFD055C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -1070,15 +1070,6 @@
     <t>1, Skilled manual work (i.e. sewing, beadwork, arts and craft, administrative assistants) | 2, Unskilled manual work (i.e. hotel maids, cleaner, sweepers or farm worker, domestic work) | 3, Clerical support, service or sales (i.e. hairdresser, taxi service) | 4, Managerial/ professional | 5, Own business | 6, Other</t>
   </si>
   <si>
-    <t>case_when(
-gsk_dse_ei_empl_desc == 1 ~ "Skilled manual work (i.e. sewing, beadwork, arts and craft, administrative assistants)";
-gsk_dse_ei_empl_desc == 2 ~ "Unskilled manual work (i.e. hotel maids, cleaner, sweepers or farm worker, domestic work)";
-gsk_dse_ei_empl_desc == 3 ~ "Clerical support, service or sales (i.e. hairdresser, taxi service)";
-gsk_dse_ei_empl_desc == 4 ~ "Managerial/ professional";
-gsk_dse_ei_empl_desc == 5 ~ "Own business";
-ELSE ~ NA_character_)</t>
-  </si>
-  <si>
     <t>retired</t>
   </si>
   <si>
@@ -1128,9 +1119,6 @@
   </si>
   <si>
     <t>c_WBTOT_PFAT</t>
-  </si>
-  <si>
-    <t>ifelse(!is.na(c_WBTOT_PFAT), "Dual-energy X-ray absorptiometry (DEXA) scan (HOLOGIC Discovery S/N86254)", NA)</t>
   </si>
   <si>
     <t>systolic_bp_average</t>
@@ -1511,6 +1499,18 @@
   </si>
   <si>
     <t>round(rowMeans(select(., pulse__1, pulse__2, pulse__3), na.rm = TRUE), 2)</t>
+  </si>
+  <si>
+    <t>ifelse(!is.na(total_percentage_fm), "Dual-energy X-ray absorptiometry (DEXA) scan (HOLOGIC Discovery S/N86254)", NA)</t>
+  </si>
+  <si>
+    <t>case_when(
+employment_description == 1 ~ "Skilled manual work (i.e. sewing, beadwork, arts and craft, administrative assistants)";
+employment_description == 2 ~ "Unskilled manual work (i.e. hotel maids, cleaner, sweepers or farm worker, domestic work)";
+employment_description == 3 ~ "Clerical support, service or sales (i.e. hairdresser, taxi service)";
+employment_description == 4 ~ "Managerial/ professional";
+employment_description == 5 ~ "Own business";
+ELSE ~ NA_character_)</t>
   </si>
 </sst>
 </file>
@@ -1985,10 +1985,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2142,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>25</v>
@@ -2154,7 +2154,7 @@
         <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>302</v>
@@ -2508,7 +2508,7 @@
         <v>206</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>319</v>
+        <v>438</v>
       </c>
       <c r="U11" s="3"/>
     </row>
@@ -2535,13 +2535,13 @@
         <v>76</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>314</v>
@@ -2583,16 +2583,16 @@
         <v>80</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>324</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>60</v>
@@ -2631,16 +2631,16 @@
         <v>84</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>324</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>25</v>
@@ -2652,7 +2652,7 @@
         <v>39</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U14" s="3"/>
     </row>
@@ -2694,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U15" s="3"/>
     </row>
@@ -2733,10 +2733,10 @@
         <v>33</v>
       </c>
       <c r="S16" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="T16" s="17" t="s">
         <v>327</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>328</v>
       </c>
       <c r="U16" s="3"/>
     </row>
@@ -2778,7 +2778,7 @@
         <v>297</v>
       </c>
       <c r="T17" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U17" s="3"/>
     </row>
@@ -2859,10 +2859,10 @@
         <v>33</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U19" s="3"/>
     </row>
@@ -2928,10 +2928,10 @@
         <v>90</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>291</v>
@@ -2949,10 +2949,10 @@
         <v>33</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U21" s="3"/>
     </row>
@@ -2979,7 +2979,7 @@
         <v>93</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>25</v>
@@ -2991,7 +2991,7 @@
         <v>33</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U22" s="3"/>
     </row>
@@ -3018,10 +3018,10 @@
         <v>109</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>25</v>
@@ -3033,7 +3033,7 @@
         <v>44</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="U23" s="3"/>
     </row>
@@ -3057,10 +3057,10 @@
         <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>25</v>
@@ -3072,7 +3072,7 @@
         <v>33</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>337</v>
+        <v>437</v>
       </c>
       <c r="U24" s="3"/>
     </row>
@@ -3099,10 +3099,10 @@
         <v>115</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>115</v>
@@ -3120,7 +3120,7 @@
         <v>33</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U25" s="3"/>
     </row>
@@ -3147,10 +3147,10 @@
         <v>115</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>115</v>
@@ -3168,7 +3168,7 @@
         <v>33</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="U26" s="3"/>
     </row>
@@ -3195,10 +3195,10 @@
         <v>121</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>122</v>
@@ -3216,7 +3216,7 @@
         <v>33</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U27" s="3"/>
     </row>
@@ -3282,13 +3282,13 @@
         <v>128</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>25</v>
@@ -3300,7 +3300,7 @@
         <v>206</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U29" s="3"/>
     </row>
@@ -3366,13 +3366,13 @@
         <v>134</v>
       </c>
       <c r="J31" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>109</v>
@@ -3387,7 +3387,7 @@
         <v>33</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="U31" s="3"/>
     </row>
@@ -3414,10 +3414,10 @@
         <v>137</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>136</v>
@@ -3462,13 +3462,13 @@
         <v>137</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>292</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>137</v>
@@ -3510,13 +3510,13 @@
         <v>137</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>293</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>137</v>
@@ -3558,10 +3558,10 @@
         <v>137</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>137</v>
@@ -3603,10 +3603,10 @@
         <v>137</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>145</v>
@@ -3651,13 +3651,13 @@
         <v>148</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>294</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>149</v>
@@ -3855,10 +3855,10 @@
         <v>167</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>25</v>
@@ -3870,10 +3870,10 @@
         <v>33</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U42" s="3"/>
     </row>
@@ -3915,7 +3915,7 @@
         <v>60</v>
       </c>
       <c r="T43" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U43" s="3"/>
     </row>
@@ -3942,19 +3942,19 @@
         <v>174</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="M44" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="O44" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>25</v>
@@ -3966,7 +3966,7 @@
         <v>39</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U44" s="3"/>
     </row>
@@ -3993,16 +3993,16 @@
         <v>178</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M45" s="11" t="s">
         <v>314</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>25</v>
@@ -4014,7 +4014,7 @@
         <v>206</v>
       </c>
       <c r="S45" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="U45" s="3"/>
     </row>
@@ -4041,10 +4041,10 @@
         <v>181</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M46" s="11" t="s">
         <v>314</v>
@@ -4059,7 +4059,7 @@
         <v>206</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="U46" s="3"/>
     </row>
@@ -4086,10 +4086,10 @@
         <v>184</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>25</v>
@@ -4101,7 +4101,7 @@
         <v>33</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U47" s="3"/>
     </row>
@@ -4128,16 +4128,16 @@
         <v>187</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="M48" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>387</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         <v>39</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="U48" s="3"/>
     </row>
@@ -4176,19 +4176,19 @@
         <v>191</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="M49" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L49" s="3" t="s">
+      <c r="O49" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>25</v>
@@ -4200,7 +4200,7 @@
         <v>206</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="U49" s="3"/>
     </row>
@@ -4227,19 +4227,19 @@
         <v>191</v>
       </c>
       <c r="J50" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>25</v>
@@ -4251,7 +4251,7 @@
         <v>39</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U50" s="3"/>
     </row>
@@ -4278,16 +4278,16 @@
         <v>191</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>60</v>
@@ -4365,16 +4365,16 @@
         <v>191</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>25</v>
@@ -4386,7 +4386,7 @@
         <v>39</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="U53" s="3"/>
     </row>
@@ -4413,16 +4413,16 @@
         <v>191</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>25</v>
@@ -4434,7 +4434,7 @@
         <v>39</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="U54" s="3"/>
     </row>
@@ -4461,10 +4461,10 @@
         <v>191</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M55" s="11" t="s">
         <v>314</v>
@@ -4506,7 +4506,7 @@
         <v>191</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M56" s="11" t="s">
         <v>314</v>
@@ -4524,7 +4524,7 @@
         <v>315</v>
       </c>
       <c r="T56" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="U56" s="3"/>
     </row>
@@ -4551,10 +4551,10 @@
         <v>191</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M57" s="11" t="s">
         <v>314</v>
@@ -4926,16 +4926,16 @@
         <v>233</v>
       </c>
       <c r="J67" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>25</v>
@@ -4974,13 +4974,13 @@
         <v>236</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>25</v>
@@ -4992,7 +4992,7 @@
         <v>206</v>
       </c>
       <c r="S68" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="U68" s="3"/>
     </row>
@@ -5019,13 +5019,13 @@
         <v>239</v>
       </c>
       <c r="J69" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="M69" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="M69" s="10" t="s">
-        <v>415</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>25</v>
@@ -5037,7 +5037,7 @@
         <v>39</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="U69" s="3"/>
     </row>
@@ -5064,13 +5064,13 @@
         <v>242</v>
       </c>
       <c r="J70" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>419</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>25</v>
@@ -5082,7 +5082,7 @@
         <v>206</v>
       </c>
       <c r="S70" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="U70" s="3"/>
     </row>
@@ -5109,13 +5109,13 @@
         <v>242</v>
       </c>
       <c r="J71" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="L71" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>25</v>
@@ -5127,7 +5127,7 @@
         <v>206</v>
       </c>
       <c r="S71" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="U71" s="3"/>
     </row>
@@ -5154,13 +5154,13 @@
         <v>242</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>25</v>
@@ -5172,7 +5172,7 @@
         <v>206</v>
       </c>
       <c r="S72" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="U72" s="3"/>
     </row>
@@ -5199,13 +5199,13 @@
         <v>250</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>25</v>
@@ -5217,7 +5217,7 @@
         <v>206</v>
       </c>
       <c r="S73" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="U73" s="3"/>
     </row>
@@ -5556,13 +5556,13 @@
         <v>191</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>314</v>
@@ -5577,7 +5577,7 @@
         <v>206</v>
       </c>
       <c r="S82" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U82" s="3"/>
     </row>

--- a/data_processing_elements-MSC.xlsx
+++ b/data_processing_elements-MSC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF8EAF8-A772-4524-8578-E998AFD055C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F21985-8293-426B-B700-8EFF705404C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1103,18 +1103,12 @@
     <t>ifelse(!is.na(weight), 2, NA)</t>
   </si>
   <si>
-    <t>waist_circumference__average</t>
-  </si>
-  <si>
     <t>Average waist circumference</t>
   </si>
   <si>
     <t>Please confirm units are m</t>
   </si>
   <si>
-    <t>ifelse(!is.na(waist_circumference__average), 2, NA)</t>
-  </si>
-  <si>
     <t>total_percentage_fm</t>
   </si>
   <si>
@@ -1131,11 +1125,6 @@
   </si>
   <si>
     <t>Diastolic BP</t>
-  </si>
-  <si>
-    <t>pulse__1;
-pulse__2;
-pulse__3</t>
   </si>
   <si>
     <t>Pulse</t>
@@ -1489,16 +1478,10 @@
     <t>format(as.Date(gsk_seendate, format = "%Y/%m/%d"), "%Y-%m-%d")</t>
   </si>
   <si>
-    <t>round(waist_circumference__average*100, 2)</t>
-  </si>
-  <si>
     <t>round(systolic_bp_average, 2)</t>
   </si>
   <si>
     <t>round(diastolic_bp_average, 2)</t>
-  </si>
-  <si>
-    <t>round(rowMeans(select(., pulse__1, pulse__2, pulse__3), na.rm = TRUE), 2)</t>
   </si>
   <si>
     <t>ifelse(!is.na(total_percentage_fm), "Dual-energy X-ray absorptiometry (DEXA) scan (HOLOGIC Discovery S/N86254)", NA)</t>
@@ -1511,6 +1494,23 @@
 employment_description == 4 ~ "Managerial/ professional";
 employment_description == 5 ~ "Own business";
 ELSE ~ NA_character_)</t>
+  </si>
+  <si>
+    <t>pulse_1;
+pulse_2;
+pulse_3</t>
+  </si>
+  <si>
+    <t>round(rowMeans(select(., pulse_1, pulse_2, pulse_3), na.rm = TRUE), 2)</t>
+  </si>
+  <si>
+    <t>waist_circumference_average</t>
+  </si>
+  <si>
+    <t>round(waist_circumference_average*100, 2)</t>
+  </si>
+  <si>
+    <t>ifelse(!is.na(waist_circumference_average), 2, NA)</t>
   </si>
 </sst>
 </file>
@@ -1985,10 +1985,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2142,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>25</v>
@@ -2154,7 +2154,7 @@
         <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>302</v>
@@ -2508,7 +2508,7 @@
         <v>206</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="U11" s="3"/>
     </row>
@@ -2928,10 +2928,10 @@
         <v>90</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>291</v>
@@ -2949,10 +2949,10 @@
         <v>33</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U21" s="3"/>
     </row>
@@ -2979,7 +2979,7 @@
         <v>93</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>330</v>
+        <v>436</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>25</v>
@@ -2991,7 +2991,7 @@
         <v>33</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>333</v>
+        <v>438</v>
       </c>
       <c r="U22" s="3"/>
     </row>
@@ -3018,10 +3018,10 @@
         <v>109</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>25</v>
@@ -3033,7 +3033,7 @@
         <v>44</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="U23" s="3"/>
     </row>
@@ -3057,10 +3057,10 @@
         <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>25</v>
@@ -3072,7 +3072,7 @@
         <v>33</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="U24" s="3"/>
     </row>
@@ -3099,10 +3099,10 @@
         <v>115</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>115</v>
@@ -3120,7 +3120,7 @@
         <v>33</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="U25" s="3"/>
     </row>
@@ -3147,10 +3147,10 @@
         <v>115</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>115</v>
@@ -3168,7 +3168,7 @@
         <v>33</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="U26" s="3"/>
     </row>
@@ -3195,10 +3195,10 @@
         <v>121</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>340</v>
+        <v>434</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>122</v>
@@ -3216,7 +3216,7 @@
         <v>33</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U27" s="3"/>
     </row>
@@ -3282,13 +3282,13 @@
         <v>128</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>25</v>
@@ -3300,7 +3300,7 @@
         <v>206</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="U29" s="3"/>
     </row>
@@ -3366,13 +3366,13 @@
         <v>134</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>109</v>
@@ -3387,7 +3387,7 @@
         <v>33</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="U31" s="3"/>
     </row>
@@ -3414,10 +3414,10 @@
         <v>137</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>136</v>
@@ -3462,13 +3462,13 @@
         <v>137</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>292</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>137</v>
@@ -3510,13 +3510,13 @@
         <v>137</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>293</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>137</v>
@@ -3558,10 +3558,10 @@
         <v>137</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>137</v>
@@ -3603,10 +3603,10 @@
         <v>137</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>145</v>
@@ -3651,13 +3651,13 @@
         <v>148</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>294</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>149</v>
@@ -3855,10 +3855,10 @@
         <v>167</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>25</v>
@@ -3870,10 +3870,10 @@
         <v>33</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="U42" s="3"/>
     </row>
@@ -3915,7 +3915,7 @@
         <v>60</v>
       </c>
       <c r="T43" s="16" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="U43" s="3"/>
     </row>
@@ -3942,19 +3942,19 @@
         <v>174</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="M44" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="O44" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>25</v>
@@ -3966,7 +3966,7 @@
         <v>39</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="U44" s="3"/>
     </row>
@@ -3993,16 +3993,16 @@
         <v>178</v>
       </c>
       <c r="J45" s="13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M45" s="11" t="s">
         <v>314</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>25</v>
@@ -4014,7 +4014,7 @@
         <v>206</v>
       </c>
       <c r="S45" s="13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="U45" s="3"/>
     </row>
@@ -4041,10 +4041,10 @@
         <v>181</v>
       </c>
       <c r="J46" s="13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M46" s="11" t="s">
         <v>314</v>
@@ -4059,7 +4059,7 @@
         <v>206</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="U46" s="3"/>
     </row>
@@ -4086,10 +4086,10 @@
         <v>184</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>25</v>
@@ -4101,7 +4101,7 @@
         <v>33</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="U47" s="3"/>
     </row>
@@ -4128,16 +4128,16 @@
         <v>187</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>25</v>
@@ -4149,7 +4149,7 @@
         <v>39</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="U48" s="3"/>
     </row>
@@ -4176,19 +4176,19 @@
         <v>191</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>25</v>
@@ -4200,7 +4200,7 @@
         <v>206</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="U49" s="3"/>
     </row>
@@ -4227,19 +4227,19 @@
         <v>191</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>25</v>
@@ -4251,7 +4251,7 @@
         <v>39</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="U50" s="3"/>
     </row>
@@ -4278,16 +4278,16 @@
         <v>191</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>60</v>
@@ -4365,16 +4365,16 @@
         <v>191</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>25</v>
@@ -4386,7 +4386,7 @@
         <v>39</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="U53" s="3"/>
     </row>
@@ -4413,16 +4413,16 @@
         <v>191</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>25</v>
@@ -4434,7 +4434,7 @@
         <v>39</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="U54" s="3"/>
     </row>
@@ -4461,10 +4461,10 @@
         <v>191</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M55" s="11" t="s">
         <v>314</v>
@@ -4506,7 +4506,7 @@
         <v>191</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M56" s="11" t="s">
         <v>314</v>
@@ -4524,7 +4524,7 @@
         <v>315</v>
       </c>
       <c r="T56" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="U56" s="3"/>
     </row>
@@ -4551,10 +4551,10 @@
         <v>191</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M57" s="11" t="s">
         <v>314</v>
@@ -4926,16 +4926,16 @@
         <v>233</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>25</v>
@@ -4974,13 +4974,13 @@
         <v>236</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>25</v>
@@ -4992,7 +4992,7 @@
         <v>206</v>
       </c>
       <c r="S68" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="U68" s="3"/>
     </row>
@@ -5019,13 +5019,13 @@
         <v>239</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>25</v>
@@ -5037,7 +5037,7 @@
         <v>39</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="U69" s="3"/>
     </row>
@@ -5064,13 +5064,13 @@
         <v>242</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="K70" s="13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>25</v>
@@ -5082,7 +5082,7 @@
         <v>206</v>
       </c>
       <c r="S70" s="13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="U70" s="3"/>
     </row>
@@ -5109,13 +5109,13 @@
         <v>242</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>25</v>
@@ -5127,7 +5127,7 @@
         <v>206</v>
       </c>
       <c r="S71" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="U71" s="3"/>
     </row>
@@ -5154,13 +5154,13 @@
         <v>242</v>
       </c>
       <c r="J72" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="L72" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>25</v>
@@ -5172,7 +5172,7 @@
         <v>206</v>
       </c>
       <c r="S72" s="13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="U72" s="3"/>
     </row>
@@ -5199,13 +5199,13 @@
         <v>250</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>25</v>
@@ -5217,7 +5217,7 @@
         <v>206</v>
       </c>
       <c r="S73" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="U73" s="3"/>
     </row>
@@ -5556,13 +5556,13 @@
         <v>191</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>314</v>
@@ -5577,7 +5577,7 @@
         <v>206</v>
       </c>
       <c r="S82" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="U82" s="3"/>
     </row>

--- a/data_processing_elements-MSC.xlsx
+++ b/data_processing_elements-MSC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F21985-8293-426B-B700-8EFF705404C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FDF2F-E0B0-452F-8265-A41491302C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1200,9 +1200,6 @@
     <t>EnergykJ</t>
   </si>
   <si>
-    <t>EnergykJ/4.184</t>
-  </si>
-  <si>
     <t>Can you confirm the unit is kJ/day?</t>
   </si>
   <si>
@@ -1266,9 +1263,6 @@
   </si>
   <si>
     <t>Hand-rolled and manufactured cigarettes are taken into account.</t>
-  </si>
-  <si>
-    <t>rowSums(daily_hand_rolled_cigarettes, daily_manufactured_cigarettes, na.rm=TRUE)*7</t>
   </si>
   <si>
     <t>health_rating</t>
@@ -1511,6 +1505,15 @@
   </si>
   <si>
     <t>ifelse(!is.na(waist_circumference_average), 2, NA)</t>
+  </si>
+  <si>
+    <t>energykj/4.184</t>
+  </si>
+  <si>
+    <t>case_when(!is.na(daily_hand_rolled_cigarettes) &amp; !is.na(daily_manufactured_cigarettes) ~ rowSums(daily_hand_rolled_cigarettes, daily_manufactured_cigarettes, na.rm=TRUE)*7;
+!is.na(daily_hand_rolled_cigarettes) &amp; is.na(daily_manufactured_cigarettes) ~ daily_hand_rolled_cigarettes*7;
+is.na(daily_hand_rolled_cigarettes) &amp; !is.na(daily_manufactured_cigarettes) ~ daily_manufactured_cigarettes*7;
+ELSE ~ NA)</t>
   </si>
 </sst>
 </file>
@@ -1985,10 +1988,10 @@
   <dimension ref="A1:U84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2145,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>25</v>
@@ -2154,7 +2157,7 @@
         <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>302</v>
@@ -2508,7 +2511,7 @@
         <v>206</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="U11" s="3"/>
     </row>
@@ -2928,7 +2931,7 @@
         <v>90</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>330</v>
@@ -2949,7 +2952,7 @@
         <v>33</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="T21" s="17" t="s">
         <v>331</v>
@@ -2979,7 +2982,7 @@
         <v>93</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>25</v>
@@ -2991,7 +2994,7 @@
         <v>33</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U22" s="3"/>
     </row>
@@ -3072,7 +3075,7 @@
         <v>33</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U24" s="3"/>
     </row>
@@ -3120,7 +3123,7 @@
         <v>33</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="U25" s="3"/>
     </row>
@@ -3168,7 +3171,7 @@
         <v>33</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="U26" s="3"/>
     </row>
@@ -3195,7 +3198,7 @@
         <v>121</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>338</v>
@@ -3216,7 +3219,7 @@
         <v>33</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U27" s="3"/>
     </row>
@@ -3870,10 +3873,10 @@
         <v>33</v>
       </c>
       <c r="S42" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="T42" s="17" t="s">
         <v>361</v>
-      </c>
-      <c r="T42" s="17" t="s">
-        <v>362</v>
       </c>
       <c r="U42" s="3"/>
     </row>
@@ -3915,7 +3918,7 @@
         <v>60</v>
       </c>
       <c r="T43" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U43" s="3"/>
     </row>
@@ -3942,19 +3945,19 @@
         <v>174</v>
       </c>
       <c r="J44" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="M44" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="O44" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>25</v>
@@ -3966,7 +3969,7 @@
         <v>39</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="U44" s="3"/>
     </row>
@@ -3993,16 +3996,16 @@
         <v>178</v>
       </c>
       <c r="J45" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="L45" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>371</v>
       </c>
       <c r="M45" s="11" t="s">
         <v>314</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>25</v>
@@ -4014,7 +4017,7 @@
         <v>206</v>
       </c>
       <c r="S45" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U45" s="3"/>
     </row>
@@ -4041,10 +4044,10 @@
         <v>181</v>
       </c>
       <c r="J46" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="L46" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="M46" s="11" t="s">
         <v>314</v>
@@ -4059,11 +4062,11 @@
         <v>206</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="U46" s="3"/>
     </row>
-    <row r="47" spans="1:21" ht="57" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="357" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -4086,10 +4089,10 @@
         <v>184</v>
       </c>
       <c r="J47" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>25</v>
@@ -4098,10 +4101,10 @@
         <v>49</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>379</v>
+        <v>206</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="U47" s="3"/>
     </row>
@@ -4128,16 +4131,16 @@
         <v>187</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="M48" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>382</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>25</v>
@@ -4149,7 +4152,7 @@
         <v>39</v>
       </c>
       <c r="S48" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="U48" s="3"/>
     </row>
@@ -4176,19 +4179,19 @@
         <v>191</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="M49" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="L49" s="3" t="s">
+      <c r="O49" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>25</v>
@@ -4200,7 +4203,7 @@
         <v>206</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="U49" s="3"/>
     </row>
@@ -4227,19 +4230,19 @@
         <v>191</v>
       </c>
       <c r="J50" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>25</v>
@@ -4251,7 +4254,7 @@
         <v>39</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="U50" s="3"/>
     </row>
@@ -4278,16 +4281,16 @@
         <v>191</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>60</v>
@@ -4365,16 +4368,16 @@
         <v>191</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>25</v>
@@ -4386,7 +4389,7 @@
         <v>39</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U53" s="3"/>
     </row>
@@ -4413,16 +4416,16 @@
         <v>191</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>25</v>
@@ -4434,7 +4437,7 @@
         <v>39</v>
       </c>
       <c r="S54" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U54" s="3"/>
     </row>
@@ -4461,10 +4464,10 @@
         <v>191</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M55" s="11" t="s">
         <v>314</v>
@@ -4506,7 +4509,7 @@
         <v>191</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M56" s="11" t="s">
         <v>314</v>
@@ -4524,7 +4527,7 @@
         <v>315</v>
       </c>
       <c r="T56" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="U56" s="3"/>
     </row>
@@ -4551,10 +4554,10 @@
         <v>191</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M57" s="11" t="s">
         <v>314</v>
@@ -4926,16 +4929,16 @@
         <v>233</v>
       </c>
       <c r="J67" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="O67" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>25</v>
@@ -4974,13 +4977,13 @@
         <v>236</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>25</v>
@@ -4992,7 +4995,7 @@
         <v>206</v>
       </c>
       <c r="S68" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="U68" s="3"/>
     </row>
@@ -5019,13 +5022,13 @@
         <v>239</v>
       </c>
       <c r="J69" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="M69" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="M69" s="10" t="s">
-        <v>410</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>25</v>
@@ -5037,7 +5040,7 @@
         <v>39</v>
       </c>
       <c r="S69" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="U69" s="3"/>
     </row>
@@ -5064,13 +5067,13 @@
         <v>242</v>
       </c>
       <c r="J70" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>25</v>
@@ -5082,7 +5085,7 @@
         <v>206</v>
       </c>
       <c r="S70" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="U70" s="3"/>
     </row>
@@ -5109,13 +5112,13 @@
         <v>242</v>
       </c>
       <c r="J71" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="L71" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>25</v>
@@ -5127,7 +5130,7 @@
         <v>206</v>
       </c>
       <c r="S71" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="U71" s="3"/>
     </row>
@@ -5154,13 +5157,13 @@
         <v>242</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>25</v>
@@ -5172,7 +5175,7 @@
         <v>206</v>
       </c>
       <c r="S72" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="U72" s="3"/>
     </row>
@@ -5199,13 +5202,13 @@
         <v>250</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K73" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>25</v>
@@ -5217,7 +5220,7 @@
         <v>206</v>
       </c>
       <c r="S73" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="U73" s="3"/>
     </row>
@@ -5556,13 +5559,13 @@
         <v>191</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>314</v>
@@ -5577,7 +5580,7 @@
         <v>206</v>
       </c>
       <c r="S82" s="13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="U82" s="3"/>
     </row>

--- a/data_processing_elements-MSC.xlsx
+++ b/data_processing_elements-MSC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FDF2F-E0B0-452F-8265-A41491302C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6B0431-93D6-4F1B-8102-45CA0F56DEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1510,9 +1510,9 @@
     <t>energykj/4.184</t>
   </si>
   <si>
-    <t>case_when(!is.na(daily_hand_rolled_cigarettes) &amp; !is.na(daily_manufactured_cigarettes) ~ rowSums(daily_hand_rolled_cigarettes, daily_manufactured_cigarettes, na.rm=TRUE)*7;
-!is.na(daily_hand_rolled_cigarettes) &amp; is.na(daily_manufactured_cigarettes) ~ daily_hand_rolled_cigarettes*7;
-is.na(daily_hand_rolled_cigarettes) &amp; !is.na(daily_manufactured_cigarettes) ~ daily_manufactured_cigarettes*7;
+    <t>case_when(!is.na(as.numeric(daily_hand_rolled_cigarettes)) &amp; !is.na(as.numeric(daily_manufactured_cigarettes)) ~ (as.numeric(daily_hand_rolled_cigarettes)+ as.numeric(daily_manufactured_cigarettes))/2)*7;
+!is.na(as.numeric(daily_hand_rolled_cigarettes)) &amp; is.na(as.numeric(daily_manufactured_cigarettes)) ~ as.numeric(daily_hand_rolled_cigarettes)*7;
+is.na(as.numeric(daily_hand_rolled_cigarettes)) &amp; !is.na(as.numeric(daily_manufactured_cigarettes)) ~ as.numeric(daily_manufactured_cigarettes)*7;
 ELSE ~ NA)</t>
   </si>
 </sst>
@@ -1991,7 +1991,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="I47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N47" sqref="N47"/>
+      <selection pane="bottomRight" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="U46" s="3"/>
     </row>
-    <row r="47" spans="1:21" ht="357" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>

--- a/data_processing_elements-MSC.xlsx
+++ b/data_processing_elements-MSC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6B0431-93D6-4F1B-8102-45CA0F56DEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302FAE53-4ED7-45DF-B3BE-B71E0710846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1510,7 +1510,7 @@
     <t>energykj/4.184</t>
   </si>
   <si>
-    <t>case_when(!is.na(as.numeric(daily_hand_rolled_cigarettes)) &amp; !is.na(as.numeric(daily_manufactured_cigarettes)) ~ (as.numeric(daily_hand_rolled_cigarettes)+ as.numeric(daily_manufactured_cigarettes))/2)*7;
+    <t>case_when(!is.na(as.numeric(daily_hand_rolled_cigarettes)) &amp; !is.na(as.numeric(daily_manufactured_cigarettes)) ~ ((as.numeric(daily_hand_rolled_cigarettes)+ as.numeric(daily_manufactured_cigarettes))/2)*7;
 !is.na(as.numeric(daily_hand_rolled_cigarettes)) &amp; is.na(as.numeric(daily_manufactured_cigarettes)) ~ as.numeric(daily_hand_rolled_cigarettes)*7;
 is.na(as.numeric(daily_hand_rolled_cigarettes)) &amp; !is.na(as.numeric(daily_manufactured_cigarettes)) ~ as.numeric(daily_manufactured_cigarettes)*7;
 ELSE ~ NA)</t>

--- a/data_processing_elements-MSC.xlsx
+++ b/data_processing_elements-MSC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atrottier\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA16A5-2716-4BE1-AB68-F38ED369E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A82D12B-4244-4693-A885-78C07F880ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_processing_elements!$A$1:$S$84</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1432,9 +1432,6 @@
   </si>
   <si>
     <t>round(weight, 2)</t>
-  </si>
-  <si>
-    <t>energykj/4184</t>
   </si>
   <si>
     <t>recode(1=1; 0=0; 3=NA; ELSE=NA)</t>
@@ -1502,6 +1499,9 @@
 ((((as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 7, 8)) / 3600)) * 2/7) + 
 (((as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 7, 8)) / 3600)) * 5/7)) &gt;= 10 ~ 11L;
 TRUE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>energykj/4.184</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1609,7 +1609,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1952,10 +1951,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
+      <selection pane="bottomRight" activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,16 +2061,16 @@
       <c r="J2" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="9" t="s">
         <v>297</v>
       </c>
     </row>
@@ -2100,16 +2099,16 @@
       <c r="J3" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="9" t="s">
         <v>397</v>
       </c>
     </row>
@@ -2147,16 +2146,16 @@
       <c r="M4" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="9" t="s">
         <v>400</v>
       </c>
     </row>
@@ -2191,16 +2190,16 @@
       <c r="L5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2238,16 +2237,16 @@
       <c r="M6" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="9" t="s">
         <v>305</v>
       </c>
     </row>
@@ -2276,13 +2275,13 @@
       <c r="J7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="9" t="s">
         <v>53</v>
       </c>
       <c r="S7" s="5">
@@ -2323,16 +2322,16 @@
       <c r="M8" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2361,16 +2360,16 @@
       <c r="J9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q9" s="11" t="s">
+      <c r="P9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="11" t="s">
+      <c r="R9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S9" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2396,16 +2395,16 @@
       <c r="J10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="11" t="s">
+      <c r="P10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S10" s="11" t="s">
+      <c r="R10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2440,13 +2439,13 @@
       <c r="M11" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="9" t="s">
         <v>204</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -2487,16 +2486,16 @@
       <c r="M12" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="S12" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2534,16 +2533,16 @@
       <c r="M13" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="P13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q13" s="11" t="s">
+      <c r="P13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="R13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S13" s="11" t="s">
+      <c r="R13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2581,16 +2580,16 @@
       <c r="M14" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="S14" s="9" t="s">
         <v>401</v>
       </c>
     </row>
@@ -2619,13 +2618,13 @@
       <c r="J15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="9" t="s">
         <v>53</v>
       </c>
       <c r="S15" s="5">
@@ -2657,16 +2656,16 @@
       <c r="J16" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="9" t="s">
         <v>415</v>
       </c>
     </row>
@@ -2695,16 +2694,16 @@
       <c r="J17" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="S17" s="9" t="s">
         <v>294</v>
       </c>
     </row>
@@ -2736,16 +2735,16 @@
       <c r="N18" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="S18" s="9" t="s">
         <v>420</v>
       </c>
     </row>
@@ -2774,16 +2773,16 @@
       <c r="J19" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="S19" s="9" t="s">
         <v>317</v>
       </c>
     </row>
@@ -2812,16 +2811,16 @@
       <c r="J20" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="S20" s="9" t="s">
         <v>419</v>
       </c>
     </row>
@@ -2859,16 +2858,16 @@
       <c r="O21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S21" s="11" t="s">
+      <c r="S21" s="9" t="s">
         <v>408</v>
       </c>
     </row>
@@ -2897,13 +2896,13 @@
       <c r="J22" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="9" t="s">
         <v>31</v>
       </c>
       <c r="S22" s="1" t="s">
@@ -2938,16 +2937,16 @@
       <c r="K23" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S23" s="11" t="s">
+      <c r="S23" s="9" t="s">
         <v>319</v>
       </c>
     </row>
@@ -2976,13 +2975,13 @@
       <c r="K24" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="9" t="s">
         <v>31</v>
       </c>
       <c r="S24" s="1" t="s">
@@ -3023,16 +3022,16 @@
       <c r="O25" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="P25" s="11" t="s">
+      <c r="P25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q25" s="11" t="s">
+      <c r="Q25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S25" s="11" t="s">
+      <c r="S25" s="9" t="s">
         <v>398</v>
       </c>
     </row>
@@ -3070,16 +3069,16 @@
       <c r="O26" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="R26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="S26" s="9" t="s">
         <v>399</v>
       </c>
     </row>
@@ -3117,13 +3116,13 @@
       <c r="O27" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="R27" s="9" t="s">
         <v>31</v>
       </c>
       <c r="S27" s="1" t="s">
@@ -3155,16 +3154,16 @@
       <c r="J28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q28" s="11" t="s">
+      <c r="P28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S28" s="11" t="s">
+      <c r="R28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S28" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3199,13 +3198,13 @@
       <c r="L29" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="P29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="Q29" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="R29" s="9" t="s">
         <v>204</v>
       </c>
       <c r="S29" s="1" t="s">
@@ -3237,16 +3236,16 @@
       <c r="J30" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q30" s="11" t="s">
+      <c r="P30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q30" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S30" s="11" t="s">
+      <c r="R30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S30" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3284,16 +3283,16 @@
       <c r="N31" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S31" s="11" t="s">
+      <c r="S31" s="9" t="s">
         <v>333</v>
       </c>
     </row>
@@ -3331,16 +3330,16 @@
       <c r="N32" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S32" s="11" t="s">
+      <c r="S32" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3378,16 +3377,16 @@
       <c r="N33" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="P33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R33" s="11" t="s">
+      <c r="R33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S33" s="11" t="s">
+      <c r="S33" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3425,16 +3424,16 @@
       <c r="N34" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S34" s="11" t="s">
+      <c r="S34" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3469,16 +3468,16 @@
       <c r="N35" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S35" s="11" t="s">
+      <c r="S35" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3516,16 +3515,16 @@
       <c r="N36" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q36" s="11" t="s">
+      <c r="Q36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R36" s="11" t="s">
+      <c r="R36" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S36" s="11" t="s">
+      <c r="S36" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3563,16 +3562,16 @@
       <c r="N37" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R37" s="11" t="s">
+      <c r="R37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S37" s="11" t="s">
+      <c r="S37" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3601,16 +3600,16 @@
       <c r="J38" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q38" s="11" t="s">
+      <c r="P38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q38" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S38" s="11" t="s">
+      <c r="R38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S38" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3639,16 +3638,16 @@
       <c r="J39" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q39" s="11" t="s">
+      <c r="P39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S39" s="11" t="s">
+      <c r="R39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S39" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3677,16 +3676,16 @@
       <c r="J40" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q40" s="11" t="s">
+      <c r="P40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R40" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S40" s="11" t="s">
+      <c r="R40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S40" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3715,16 +3714,16 @@
       <c r="J41" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q41" s="11" t="s">
+      <c r="P41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S41" s="11" t="s">
+      <c r="R41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S41" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3756,17 +3755,17 @@
       <c r="K42" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="P42" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R42" s="11" t="s">
+      <c r="R42" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="11" t="s">
-        <v>421</v>
+      <c r="S42" s="9" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -3794,16 +3793,16 @@
       <c r="J43" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q43" s="11" t="s">
+      <c r="P43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S43" s="11" t="s">
+      <c r="R43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S43" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3844,16 +3843,16 @@
       <c r="O44" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q44" s="11" t="s">
+      <c r="Q44" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R44" s="11" t="s">
+      <c r="R44" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S44" s="11" t="s">
+      <c r="S44" s="9" t="s">
         <v>402</v>
       </c>
     </row>
@@ -3891,13 +3890,13 @@
       <c r="O45" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q45" s="11" t="s">
+      <c r="Q45" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R45" s="11" t="s">
+      <c r="R45" s="9" t="s">
         <v>204</v>
       </c>
       <c r="S45" s="1" t="s">
@@ -3935,13 +3934,13 @@
       <c r="M46" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="P46" s="11" t="s">
+      <c r="P46" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q46" s="11" t="s">
+      <c r="Q46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R46" s="11" t="s">
+      <c r="R46" s="9" t="s">
         <v>204</v>
       </c>
       <c r="S46" s="1" t="s">
@@ -3976,16 +3975,16 @@
       <c r="O47" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="P47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R47" s="11" t="s">
+      <c r="R47" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="S47" s="11" t="s">
+      <c r="S47" s="9" t="s">
         <v>418</v>
       </c>
     </row>
@@ -4023,13 +4022,13 @@
       <c r="M48" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="P48" s="11" t="s">
+      <c r="P48" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q48" s="11" t="s">
+      <c r="Q48" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R48" s="11" t="s">
+      <c r="R48" s="9" t="s">
         <v>42</v>
       </c>
       <c r="S48" s="1" t="s">
@@ -4073,16 +4072,16 @@
       <c r="O49" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="P49" s="11" t="s">
+      <c r="P49" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q49" s="11" t="s">
+      <c r="Q49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R49" s="11" t="s">
+      <c r="R49" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="S49" s="11" t="s">
+      <c r="S49" s="9" t="s">
         <v>403</v>
       </c>
     </row>
@@ -4123,13 +4122,13 @@
       <c r="O50" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="P50" s="11" t="s">
+      <c r="P50" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="9" t="s">
         <v>37</v>
       </c>
       <c r="S50" s="1" t="s">
@@ -4170,16 +4169,16 @@
       <c r="M51" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="P51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q51" s="11" t="s">
+      <c r="P51" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="R51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S51" s="11" t="s">
+      <c r="R51" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S51" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4208,16 +4207,16 @@
       <c r="J52" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q52" s="11" t="s">
+      <c r="P52" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q52" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S52" s="11" t="s">
+      <c r="R52" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S52" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4255,13 +4254,13 @@
       <c r="M53" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P53" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q53" s="11" t="s">
+      <c r="Q53" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R53" s="11" t="s">
+      <c r="R53" s="9" t="s">
         <v>37</v>
       </c>
       <c r="S53" s="1" t="s">
@@ -4302,13 +4301,13 @@
       <c r="M54" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="P54" s="11" t="s">
+      <c r="P54" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="9" t="s">
         <v>37</v>
       </c>
       <c r="S54" s="1" t="s">
@@ -4346,17 +4345,17 @@
       <c r="M55" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="11" t="s">
-        <v>422</v>
+      <c r="S55" s="9" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -4387,17 +4386,17 @@
       <c r="M56" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Q56" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R56" s="11" t="s">
+      <c r="R56" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S56" s="11" t="s">
-        <v>422</v>
+      <c r="S56" s="9" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -4431,17 +4430,17 @@
       <c r="M57" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="P57" s="11" t="s">
+      <c r="P57" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R57" s="11" t="s">
+      <c r="R57" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S57" s="11" t="s">
-        <v>422</v>
+      <c r="S57" s="9" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -4469,16 +4468,16 @@
       <c r="J58" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q58" s="11" t="s">
+      <c r="P58" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q58" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="R58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S58" s="11" t="s">
+      <c r="R58" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S58" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4504,16 +4503,16 @@
       <c r="J59" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q59" s="11" t="s">
+      <c r="P59" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q59" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S59" s="11" t="s">
+      <c r="R59" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S59" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4539,16 +4538,16 @@
       <c r="J60" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q60" s="11" t="s">
+      <c r="P60" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q60" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S60" s="11" t="s">
+      <c r="R60" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S60" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4574,16 +4573,16 @@
       <c r="J61" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q61" s="11" t="s">
+      <c r="P61" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q61" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S61" s="11" t="s">
+      <c r="R61" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S61" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4609,16 +4608,16 @@
       <c r="J62" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q62" s="11" t="s">
+      <c r="P62" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q62" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S62" s="11" t="s">
+      <c r="R62" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S62" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4644,16 +4643,16 @@
       <c r="J63" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q63" s="11" t="s">
+      <c r="P63" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q63" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S63" s="11" t="s">
+      <c r="R63" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S63" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4679,16 +4678,16 @@
       <c r="J64" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q64" s="11" t="s">
+      <c r="P64" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q64" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S64" s="11" t="s">
+      <c r="R64" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S64" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4714,16 +4713,16 @@
       <c r="J65" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q65" s="11" t="s">
+      <c r="P65" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q65" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S65" s="11" t="s">
+      <c r="R65" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S65" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4752,16 +4751,16 @@
       <c r="J66" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q66" s="11" t="s">
+      <c r="P66" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q66" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S66" s="11" t="s">
+      <c r="R66" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S66" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4799,16 +4798,16 @@
       <c r="O67" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="P67" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q67" s="11" t="s">
+      <c r="Q67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="R67" s="11" t="s">
+      <c r="R67" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S67" s="11" t="s">
+      <c r="S67" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4843,13 +4842,13 @@
       <c r="L68" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="P68" s="11" t="s">
+      <c r="P68" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q68" s="11" t="s">
+      <c r="Q68" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R68" s="11" t="s">
+      <c r="R68" s="9" t="s">
         <v>204</v>
       </c>
       <c r="S68" s="1" t="s">
@@ -4887,13 +4886,13 @@
       <c r="M69" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q69" s="11" t="s">
+      <c r="Q69" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R69" s="11" t="s">
+      <c r="R69" s="9" t="s">
         <v>37</v>
       </c>
       <c r="S69" s="1" t="s">
@@ -4931,17 +4930,17 @@
       <c r="L70" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R70" s="11" t="s">
+      <c r="R70" s="9" t="s">
         <v>204</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -4975,17 +4974,17 @@
       <c r="L71" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q71" s="11" t="s">
+      <c r="Q71" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R71" s="11" t="s">
+      <c r="R71" s="9" t="s">
         <v>204</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -5019,17 +5018,17 @@
       <c r="L72" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P72" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q72" s="11" t="s">
+      <c r="Q72" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R72" s="11" t="s">
+      <c r="R72" s="9" t="s">
         <v>204</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -5063,17 +5062,17 @@
       <c r="L73" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="P73" s="11" t="s">
+      <c r="P73" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q73" s="11" t="s">
+      <c r="Q73" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R73" s="11" t="s">
+      <c r="R73" s="9" t="s">
         <v>204</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -5101,16 +5100,16 @@
       <c r="J74" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q74" s="11" t="s">
+      <c r="P74" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q74" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S74" s="11" t="s">
+      <c r="R74" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S74" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5139,16 +5138,16 @@
       <c r="J75" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q75" s="11" t="s">
+      <c r="P75" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q75" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S75" s="11" t="s">
+      <c r="R75" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S75" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5177,16 +5176,16 @@
       <c r="J76" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q76" s="11" t="s">
+      <c r="P76" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q76" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S76" s="11" t="s">
+      <c r="R76" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S76" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5215,16 +5214,16 @@
       <c r="J77" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q77" s="11" t="s">
+      <c r="P77" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q77" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S77" s="11" t="s">
+      <c r="R77" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S77" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5253,16 +5252,16 @@
       <c r="J78" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q78" s="11" t="s">
+      <c r="P78" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q78" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S78" s="11" t="s">
+      <c r="R78" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S78" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5291,16 +5290,16 @@
       <c r="J79" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q79" s="11" t="s">
+      <c r="P79" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q79" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="R79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S79" s="11" t="s">
+      <c r="R79" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S79" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5329,16 +5328,16 @@
       <c r="J80" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q80" s="11" t="s">
+      <c r="P80" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q80" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="R80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S80" s="11" t="s">
+      <c r="R80" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S80" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5367,16 +5366,16 @@
       <c r="J81" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q81" s="11" t="s">
+      <c r="P81" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q81" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="R81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S81" s="11" t="s">
+      <c r="R81" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S81" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5414,13 +5413,13 @@
       <c r="M82" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="P82" s="11" t="s">
+      <c r="P82" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Q82" s="11" t="s">
+      <c r="Q82" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R82" s="11" t="s">
+      <c r="R82" s="9" t="s">
         <v>204</v>
       </c>
       <c r="S82" s="1" t="s">
@@ -5449,16 +5448,16 @@
       <c r="J83" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q83" s="11" t="s">
+      <c r="P83" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q83" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="R83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S83" s="11" t="s">
+      <c r="R83" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S83" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5487,16 +5486,16 @@
       <c r="J84" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="P84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q84" s="11" t="s">
+      <c r="P84" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q84" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="R84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S84" s="11" t="s">
+      <c r="R84" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S84" s="9" t="s">
         <v>58</v>
       </c>
     </row>

--- a/data_processing_elements-MSC.xlsx
+++ b/data_processing_elements-MSC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94655116-7A67-4FB4-91A5-414854E339D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D16D42-1B19-4B6B-839F-326EA73ED21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
   <sheets>
     <sheet name="data_processing_elements" sheetId="8" r:id="rId1"/>
@@ -1441,67 +1441,67 @@
   </si>
   <si>
     <t>case_when(
+((((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 7, 8)) / 3600)) * 5/7)) &lt; 1 ~ 1L;
+((((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 7, 8)) / 3600)) * 5/7)) &lt; 2 ~ 2L;
+((((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 7, 8)) / 3600)) * 5/7)) &lt; 3 ~ 3L;
+((((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 7, 8)) / 3600)) * 5/7)) &lt; 4 ~ 4L;
+((((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 7, 8)) / 3600)) * 5/7)) &lt; 5 ~ 5L;
+((((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 7, 8)) / 3600)) * 5/7)) &lt; 6 ~ 6L;
+((((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 7, 8)) / 3600)) * 5/7)) &lt; 7 ~ 7L;
+((((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 7, 8)) / 3600)) * 5/7)) &lt; 8 ~ 8L;
+((((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 7, 8)) / 3600)) * 5/7)) &lt; 9 ~ 9L;
+((((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 7, 8)) / 3600)) * 5/7)) &lt; 10 ~ 10L;
+((((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekend), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_per_day_computer_not_at_work_weekday), 7, 8)) / 3600)) * 5/7)) &gt;= 10 ~ 11L;
+ELSE ~ NA_integer_)</t>
+  </si>
+  <si>
+    <t>case_when(
 (
-(((as.numeric(substr(hours_watching_tv_during_weekend_day, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_watching_tv_during_weekday, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekday, 7, 8)) / 3600)) * 5/7)
+(((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) * 5/7)
 ) &lt;= 1 ~ 1L;
 (
-(((as.numeric(substr(hours_watching_tv_during_weekend_day, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_watching_tv_during_weekday, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekday, 7, 8)) / 3600)) * 5/7)
+(((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) * 5/7)
 )&gt; 1 &amp; 
 (
-(((as.numeric(substr(hours_watching_tv_during_weekend_day, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_watching_tv_during_weekday, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekday, 7, 8)) / 3600)) * 5/7) 
+(((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_watching_tv_during_weekda)y, 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) * 5/7) 
 ) &lt;= 3 ~ 2L;
 (
-(((as.numeric(substr(hours_watching_tv_during_weekend_day, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_watching_tv_during_weekday, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekday, 7, 8)) / 3600)) * 5/7) 
+(((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) * 2/7) + 
+(((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) * 5/7) 
 ) &gt; 3 ~ 3L;
 ELSE ~ NA_integer_ )</t>
   </si>
   <si>
     <t>case_when(
-((as.numeric(substr(hours_watching_tv_during_weekday, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekday, 7, 8)) / 3600)) &lt;= 1 ~ 1L;
-((as.numeric(substr(hours_watching_tv_during_weekday, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekday, 7, 8)) / 3600)) &gt; 1 &amp; 
-((as.numeric(substr(hours_watching_tv_during_weekday, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekday, 7, 8)) / 3600)) &lt;= 3 ~ 2L;
-((as.numeric(substr(hours_watching_tv_during_weekday, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekday, 7, 8)) / 3600)) &gt; 3 ~ 3L;
+((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) &lt;= 1 ~ 1L;
+((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) &gt; 1 &amp; 
+((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) &lt;= 3 ~ 2L;
+((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) &gt; 3 ~ 3L;
 ELSE ~ NA_integer_
 )</t>
   </si>
   <si>
     <t>case_when(
-((as.numeric(substr(hours_watching_tv_during_weekend_day, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 7, 8)) / 3600)) &lt;= 1 ~ 1L;
-((as.numeric(substr(hours_watching_tv_during_weekend_day, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 7, 8)) / 3600)) &gt; 1 &amp; 
-((as.numeric(substr(hours_watching_tv_during_weekend_day, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 7, 8)) / 3600)) &lt;= 3 ~ 2L;
-((as.numeric(substr(hours_watching_tv_during_weekend_day, 1, 2))) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 4, 5)) / 60) + (as.numeric(substr(hours_watching_tv_during_weekend_day, 7, 8)) / 3600)) &gt; 3 ~ 3L;
-ELSE~ NA_integer_
+((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) &lt;= 1 ~ 1L;
+((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) &gt; 1 &amp; 
+((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) &lt;= 3 ~ 2L;
+((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) &gt; 3 ~ 3L;
+ELSE ~ NA_integer_
 )</t>
-  </si>
-  <si>
-    <t>case_when(
-((((as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 7, 8)) / 3600)) * 5/7)) &lt; 1 ~ 1L;
-((((as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 7, 8)) / 3600)) * 5/7)) &lt; 2 ~ 2L;
-((((as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 7, 8)) / 3600)) * 5/7)) &lt; 3 ~ 3L;
-((((as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 7, 8)) / 3600)) * 5/7)) &lt; 4 ~ 4L;
-((((as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 7, 8)) / 3600)) * 5/7)) &lt; 5 ~ 5L;
-((((as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 7, 8)) / 3600)) * 5/7)) &lt; 6 ~ 6L;
-((((as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 7, 8)) / 3600)) * 5/7)) &lt; 7 ~ 7L;
-((((as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 7, 8)) / 3600)) * 5/7)) &lt; 8 ~ 8L;
-((((as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 7, 8)) / 3600)) * 5/7)) &lt; 9 ~ 9L;
-((((as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 7, 8)) / 3600)) * 5/7)) &lt; 10 ~ 10L;
-((((as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekend, 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 1, 2))) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 4, 5)) / 60) + (as.numeric(substr(hours_per_day_computer_not_at_work_weekday, 7, 8)) / 3600)) * 5/7)) &gt;= 10 ~ 11L;
-ELSE ~ NA_integer_)</t>
   </si>
 </sst>
 </file>
@@ -1954,36 +1954,36 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S74" sqref="S74"/>
+      <selection pane="bottomRight" activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="30.5546875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="9"/>
-    <col min="8" max="8" width="8.5546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="30.109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="31.88671875" style="10" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="9" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="19.88671875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="9"/>
+    <col min="8" max="8" width="8.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="9" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -4943,10 +4943,10 @@
         <v>204</v>
       </c>
       <c r="S70" s="11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -4987,10 +4987,10 @@
         <v>204</v>
       </c>
       <c r="S71" s="11" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -5075,10 +5075,10 @@
         <v>204</v>
       </c>
       <c r="S73" s="11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>

--- a/data_processing_elements-MSC.xlsx
+++ b/data_processing_elements-MSC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbtiali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D16D42-1B19-4B6B-839F-326EA73ED21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DAFB67-EED7-4018-983B-1FBD48118095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{36FA7FB5-5526-4959-8292-475F227215C4}"/>
   </bookViews>
@@ -1467,6 +1467,24 @@
   </si>
   <si>
     <t>case_when(
+((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) &lt;= 1 ~ 1L;
+((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) &gt; 1 &amp; 
+((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) &lt;= 3 ~ 2L;
+((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) &gt; 3 ~ 3L;
+ELSE ~ NA_integer_
+)</t>
+  </si>
+  <si>
+    <t>case_when(
+((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) &lt;= 1 ~ 1L;
+((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) &gt; 1 &amp; 
+((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) &lt;= 3 ~ 2L;
+((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) &gt; 3 ~ 3L;
+ELSE ~ NA_integer_
+)</t>
+  </si>
+  <si>
+    <t>case_when(
 (
 (((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) * 2/7) + 
 (((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) * 5/7)
@@ -1477,31 +1495,13 @@
 )&gt; 1 &amp; 
 (
 (((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) * 2/7) + 
-(((as.numeric(substr(as.character(hours_watching_tv_during_weekda)y, 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) * 5/7) 
+(((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) * 5/7) 
 ) &lt;= 3 ~ 2L;
 (
 (((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) * 2/7) + 
 (((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) * 5/7) 
 ) &gt; 3 ~ 3L;
 ELSE ~ NA_integer_ )</t>
-  </si>
-  <si>
-    <t>case_when(
-((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) &lt;= 1 ~ 1L;
-((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) &gt; 1 &amp; 
-((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) &lt;= 3 ~ 2L;
-((as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekend_day), 7, 8)) / 3600)) &gt; 3 ~ 3L;
-ELSE ~ NA_integer_
-)</t>
-  </si>
-  <si>
-    <t>case_when(
-((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) &lt;= 1 ~ 1L;
-((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) &gt; 1 &amp; 
-((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) &lt;= 3 ~ 2L;
-((as.numeric(substr(as.character(hours_watching_tv_during_weekday), 1, 2))) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 4, 5)) / 60) + (as.numeric(substr(as.character(hours_watching_tv_during_weekday), 7, 8)) / 3600)) &gt; 3 ~ 3L;
-ELSE ~ NA_integer_
-)</t>
   </si>
 </sst>
 </file>
@@ -1954,10 +1954,10 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S66" sqref="S66"/>
+      <selection pane="bottomRight" activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4943,7 +4943,7 @@
         <v>204</v>
       </c>
       <c r="S70" s="11" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
@@ -4987,7 +4987,7 @@
         <v>204</v>
       </c>
       <c r="S71" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
@@ -5031,7 +5031,7 @@
         <v>204</v>
       </c>
       <c r="S72" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="409.5" x14ac:dyDescent="0.25">
